--- a/biology/Zoologie/Bombyx_laineux/Bombyx_laineux.xlsx
+++ b/biology/Zoologie/Bombyx_laineux/Bombyx_laineux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eriogaster lanestris
 Eriogaster lanestris est un lépidoptère appartenant à la famille des Lasiocampidae. Il est appelé Bombyx laineux sous sa forme imago (papillon) ou Laineuse du cerisier sous sa forme chenille. C'est l'espèce type du genre Eriogaster.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Envergure du mâle : de 13 à 15 mm.
 			La chenille : laineuse du cerisier
@@ -546,7 +560,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Période de vol : de mars à mai. Alimentation de la chenille : plantes-hôtes : diverses espèces de feuillus.</t>
         </is>
@@ -576,7 +592,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Répartition
 Eurasiatique : de l’Europe à la région du fleuve Amour.
@@ -610,11 +628,48 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'espèce Eriogaster lanestris a été décrite  par le naturaliste suédois Carl von Linné en 1758, sous le nom initial de Phalaena lanestris[1].
-Synonymie
-Phalaena lanestris Linnaeus, 1758 protonyme</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Eriogaster lanestris a été décrite  par le naturaliste suédois Carl von Linné en 1758, sous le nom initial de Phalaena lanestris.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bombyx_laineux</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bombyx_laineux</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Phalaena lanestris Linnaeus, 1758 protonyme</t>
         </is>
       </c>
     </row>
